--- a/Customer Master.xlsx
+++ b/Customer Master.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SL\Documents\SAP Detail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\GitHub\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362D19D7-1CE7-4A84-9B32-A622F4867DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="583" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1907,7 +1906,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2258,11 +2257,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M120" sqref="M120"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2479,6 +2478,9 @@
       <c r="I15" t="s">
         <v>20</v>
       </c>
+      <c r="O15" s="6" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -2514,9 +2516,6 @@
       </c>
       <c r="I18" t="s">
         <v>568</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -3907,7 +3906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4046,7 +4045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D387"/>
   <sheetViews>
     <sheetView topLeftCell="A325" workbookViewId="0">
